--- a/AmpT Group/35605/zres_siteapp_NEW.xlsx
+++ b/AmpT Group/35605/zres_siteapp_NEW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\AmpT Group\35605\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75196E06-7799-4A7C-89D2-5A1D3AC730E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FD95B-1351-41A2-96AA-1456B578406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="480" windowWidth="28905" windowHeight="19365" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>Photos</t>
   </si>
   <si>
-    <t>Lake District - Roof Cowl</t>
+    <t>Waikato - Roof Cowl</t>
   </si>
 </sst>
 </file>
